--- a/doc/新商城功能列表及相关说明20170928v1.3.xlsx
+++ b/doc/新商城功能列表及相关说明20170928v1.3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
   <si>
     <t>系统</t>
   </si>
@@ -775,6 +775,9 @@
     <t>分期付款</t>
   </si>
   <si>
+    <t>http://mall.cmbc.com.cn/</t>
+  </si>
+  <si>
     <t>系统内部人员审核</t>
   </si>
   <si>
@@ -784,6 +787,12 @@
     <t>商品池</t>
   </si>
   <si>
+    <t>换肤</t>
+  </si>
+  <si>
+    <t>界面风格统一</t>
+  </si>
+  <si>
     <t>商城基本功能</t>
   </si>
   <si>
@@ -800,6 +809,9 @@
   </si>
   <si>
     <t>功能-》库表-》代码</t>
+  </si>
+  <si>
+    <t>分期参考</t>
   </si>
 </sst>
 </file>
@@ -807,12 +819,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,6 +856,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -852,29 +901,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -889,13 +923,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -911,39 +944,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -958,9 +961,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -974,15 +1001,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,31 +1016,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,37 +1052,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,19 +1106,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,7 +1130,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,49 +1178,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,20 +1262,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1272,6 +1288,33 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1293,9 +1336,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1314,42 +1359,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1358,137 +1377,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1547,6 +1566,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1721,6 +1741,44 @@
         <a:xfrm>
           <a:off x="5848350" y="635"/>
           <a:ext cx="5657850" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>543560</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="220493799716164040"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4391025" y="11563350"/>
+          <a:ext cx="5067935" cy="3705860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2019,16 +2077,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="44.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="5" customWidth="1"/>
@@ -3138,6 +3196,9 @@
       <c r="B70" s="4" t="s">
         <v>159</v>
       </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
       <c r="F70" s="20"/>
       <c r="G70" s="21"/>
     </row>
@@ -3150,7 +3211,7 @@
         <v>68</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="21"/>
@@ -3161,7 +3222,7 @@
     </row>
     <row r="74" s="4" customFormat="1" spans="2:7">
       <c r="B74" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="21"/>
@@ -3172,10 +3233,20 @@
     </row>
     <row r="76" s="4" customFormat="1" spans="2:7">
       <c r="B76" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="21"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="22" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3222,35 +3293,35 @@
   <sheetData>
     <row r="29" spans="10:10">
       <c r="J29" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="10:12">
       <c r="J30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="10:10">
       <c r="J37" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="10:10">
       <c r="J42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3263,14 +3334,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B73:C73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="73" spans="2:3">
+      <c r="B73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/doc/新商城功能列表及相关说明20170928v1.3.xlsx
+++ b/doc/新商城功能列表及相关说明20170928v1.3.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
   <si>
     <t>系统</t>
   </si>
@@ -92,7 +92,7 @@
     <t>目前系统暂未此部分功能</t>
   </si>
   <si>
-    <t>10月9号到10月21号</t>
+    <t>11月22号到11月30号</t>
   </si>
   <si>
     <t>商品分类管理</t>
@@ -121,17 +121,47 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">a、后台产品分类：http://wx.adjyc.cn/web/index.php?c=site&amp;a=entry&amp;m=ewei_shopv2&amp;do=web&amp;r=goods.category
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a1. 差查询和导出功能，其他ok。</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">a、后台产品分类：http://wx.adjyc.cn/web/index.php?c=site&amp;a=entry&amp;m=ewei_shopv2&amp;do=web&amp;r=goods.category
-a1. 差查询和导出功能，其他ok。
+      <t xml:space="preserve">
 a2. 编辑分类，可修改分类名称，插入子分类。ok
 a3. 编辑末级分类（叶子分类），可修改分类名称，插入子分类，关联规格，关联属性，关联分组，关联类型。ok
-a4. 导出末级分类（叶子分类）下的商品信息。属于商品管理，目前不支持导出功能。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a4. 导出末级分类（叶子分类）下的商品信息。属于商品管理，目前不支持导出功能。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -158,7 +188,7 @@
     </r>
   </si>
   <si>
-    <t>10月22号到10月30号</t>
+    <t>11月9号到11月21号</t>
   </si>
   <si>
     <t>2、前台分类应和后台分类关联</t>
@@ -243,13 +273,17 @@
     <t>目前系统支持三级分类，正常分类到三级已足够，多余三级较难维护</t>
   </si>
   <si>
+    <t>11月10号已确认</t>
+  </si>
+  <si>
     <t>6、一个商品可对应多个分类</t>
   </si>
   <si>
     <t>6、一个商品可对应多个分类ok</t>
   </si>
   <si>
-    <t>商品类型管理</t>
+    <t>商品类型管理
+(11月11号到11月30号 测试测试功能)</t>
   </si>
   <si>
     <t>实物商品</t>
@@ -302,6 +336,9 @@
     </r>
   </si>
   <si>
+    <t>11月11号到11月30号 测试测试功能</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -425,6 +462,9 @@
     </r>
   </si>
   <si>
+    <t>12月1号到12月3号 测试测试功能，并写需求</t>
+  </si>
+  <si>
     <t>商品分享及关注管理</t>
   </si>
   <si>
@@ -432,6 +472,9 @@
   </si>
   <si>
     <t>如无微信此部分功能可选择关闭</t>
+  </si>
+  <si>
+    <t>11月10号已确认有该功能，12月3号到5号需优化没有微信部分</t>
   </si>
   <si>
     <t>分享管理</t>
@@ -462,12 +505,18 @@
     <t>系统目前具备此部分功能，但需要调整优化</t>
   </si>
   <si>
+    <t>11月10号已确认有该功能，12月6号到8号需优化没有微信部分</t>
+  </si>
+  <si>
     <t>商品标签管理？</t>
   </si>
   <si>
     <t>已有</t>
   </si>
   <si>
+    <t>11月10号已确认有该功能</t>
+  </si>
+  <si>
     <t>商品批量设置管理</t>
   </si>
   <si>
@@ -477,7 +526,10 @@
     <t>系统暂无此功能，参考云起调整</t>
   </si>
   <si>
-    <t>系统暂无此功能，商品助手支持批量导入天猫，京东等商品</t>
+    <t>系统暂无此功能，商品助手支持批量导入天猫，京东等商品,需测试确认</t>
+  </si>
+  <si>
+    <t>需测试确认是否符合客户需求</t>
   </si>
   <si>
     <t>批量导出</t>
@@ -486,15 +538,27 @@
     <t>系统暂无此功能</t>
   </si>
   <si>
+    <t>12月1号到12月6号 开发</t>
+  </si>
+  <si>
     <t>批量修改</t>
   </si>
   <si>
+    <t>12月3号到12月4号产品确认需求，12月7号到12月15号 开发</t>
+  </si>
+  <si>
     <t>批量复制</t>
   </si>
   <si>
+    <t>12月5号到12月6号产品确认需求，12月16号到12月22号 开发</t>
+  </si>
+  <si>
     <t>商品快速录入？</t>
   </si>
   <si>
+    <t>12月7号到12月8号产品确认需求</t>
+  </si>
+  <si>
     <t>商品审核管理</t>
   </si>
   <si>
@@ -504,9 +568,15 @@
     <t>系统暂无此功能，个人觉得没必要，等到是否上架，人工审核拦截即可。或者设置敏感字拦截。</t>
   </si>
   <si>
+    <t>12月9号到12月10号产品确认需求，12月23号到12月25号 开发</t>
+  </si>
+  <si>
     <t>商品批量审核（通过、不通过、理由）</t>
   </si>
   <si>
+    <t>12月26号到12月26号 开发</t>
+  </si>
+  <si>
     <t>审核流程管理</t>
   </si>
   <si>
@@ -516,7 +586,30 @@
     <t>商品批量库存、上下架</t>
   </si>
   <si>
-    <t>供应商管理</t>
+    <t>12月27号到12月28号 开发</t>
+  </si>
+  <si>
+    <r>
+      <t>供应商管理(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12月11号到12月15号产品确认需求</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="3" tint="0.399975585192419"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>供应商合同管理</t>
@@ -540,7 +633,18 @@
     <t>供应商商品多渠道（店铺）分销、管理</t>
   </si>
   <si>
-    <t>专题频道管理（内容管理）</t>
+    <r>
+      <t>专题频道管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(12月16号到12月18号产品确认需求)</t>
+    </r>
   </si>
   <si>
     <t>页面模板设定</t>
@@ -561,7 +665,18 @@
     <t>不同的频道专题管理（按频道集合，做分专题页面及页面相关商品管理）</t>
   </si>
   <si>
-    <t>店铺（渠道）管理</t>
+    <r>
+      <t>店铺（渠道）管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(12月16号到19月22号产品确认需求)</t>
+    </r>
   </si>
   <si>
     <t>管理权限</t>
@@ -582,7 +697,18 @@
     <t>商品、品类、品牌、栏目销售价格管理（主渠道商品池商品分销到渠道（店铺）价格批量设置导入、导出、修改）</t>
   </si>
   <si>
-    <t>广告管理</t>
+    <r>
+      <t>广告管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(12月16号到23月25号产品确认需求)</t>
+    </r>
   </si>
   <si>
     <t>广告位管理</t>
@@ -819,9 +945,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -878,9 +1004,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -900,37 +1057,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -938,37 +1067,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -984,16 +1082,44 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1016,13 +1142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1034,7 +1160,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1052,6 +1190,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1064,19 +1262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1100,19 +1292,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,73 +1304,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1277,44 +1403,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1345,17 +1453,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1365,10 +1491,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1377,133 +1503,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2079,8 +2205,8 @@
   <sheetPr/>
   <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -2186,7 +2312,7 @@
         <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="132" spans="1:8">
@@ -2209,7 +2335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="99" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="99" spans="1:8">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="7" t="s">
@@ -2225,8 +2351,11 @@
       <c r="G6" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="66" spans="1:7">
+      <c r="H6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="66" spans="1:8">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="7" t="s">
@@ -2240,12 +2369,15 @@
       <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="49.5" spans="1:7">
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="49.5" spans="1:8">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2253,65 +2385,77 @@
         <v>2</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="33" spans="1:8">
       <c r="A9" s="11"/>
       <c r="B9" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8">
         <v>2</v>
       </c>
       <c r="G9" s="7"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="66" spans="1:8">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="8">
         <v>2</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="66" spans="1:7">
+        <v>42</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="66" spans="1:8">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="8">
         <v>2</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="49.5" spans="1:7">
+        <v>46</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="66" spans="1:8">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2319,72 +2463,84 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="115.5" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="115.5" spans="1:8">
       <c r="A13" s="11"/>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F13" s="8">
         <v>3</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="33" spans="1:7">
+        <v>52</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="115.5" spans="1:8">
       <c r="A14" s="11"/>
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8">
         <v>8</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="82.5" spans="1:7">
+        <v>56</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="115.5" spans="1:8">
       <c r="A15" s="11"/>
       <c r="B15" s="13"/>
       <c r="C15" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F15" s="8">
         <v>3</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="33" spans="1:7">
+        <v>59</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="49.5" spans="1:8">
       <c r="A16" s="11"/>
       <c r="B16" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -2393,33 +2549,39 @@
         <v>2</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="33" spans="1:7">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="66" spans="1:8">
       <c r="A17" s="11"/>
       <c r="B17" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F17" s="8">
         <v>2</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="49.5" spans="1:8">
       <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -2427,14 +2589,17 @@
         <v>6</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="115.5" spans="1:8">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -2442,14 +2607,17 @@
         <v>8</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="115.5" spans="1:8">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -2457,13 +2625,16 @@
         <v>6</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="33" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="66" spans="1:8">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -2472,46 +2643,55 @@
         <v>26</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="99" spans="1:7">
+        <v>77</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="115.5" spans="1:8">
       <c r="A22" s="11"/>
       <c r="B22" s="15" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="8" t="s">
-        <v>26</v>
+      <c r="F22" s="8">
+        <v>3</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="82.5" spans="1:7">
+        <v>81</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="82.5" spans="1:8">
       <c r="A23" s="11"/>
       <c r="B23" s="16"/>
       <c r="C23" s="14" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="8" t="s">
-        <v>26</v>
+      <c r="F23" s="8">
+        <v>1</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="33" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="49.5" spans="1:8">
       <c r="A24" s="11"/>
       <c r="B24" s="17"/>
       <c r="C24" s="14" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -2519,16 +2699,19 @@
         <v>26</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="49.5" spans="1:7">
+        <v>71</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="49.5" spans="1:8">
       <c r="A25" s="13"/>
       <c r="B25" s="16" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2536,18 +2719,21 @@
         <v>26</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="66" spans="1:7">
       <c r="A26" s="15" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -2555,16 +2741,16 @@
         <v>26</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="49.5" spans="1:7">
       <c r="A27" s="16"/>
       <c r="B27" s="15" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -2572,16 +2758,16 @@
         <v>26</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="99" spans="1:7">
       <c r="A28" s="16"/>
       <c r="B28" s="15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2589,13 +2775,13 @@
         <v>26</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="82.5" spans="1:7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="49.5" spans="1:7">
       <c r="A29" s="17"/>
       <c r="B29" s="15" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="7"/>
@@ -2604,18 +2790,18 @@
         <v>26</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="1" ht="82.5" spans="1:7">
       <c r="A30" s="15" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -2623,16 +2809,16 @@
         <v>26</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" s="1" customFormat="1" ht="49.5" spans="1:7">
       <c r="A31" s="16"/>
       <c r="B31" s="15" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -2640,16 +2826,16 @@
         <v>26</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="1" ht="132" spans="1:7">
       <c r="A32" s="17"/>
       <c r="B32" s="15" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -2657,18 +2843,18 @@
         <v>26</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" s="2" customFormat="1" ht="24" customHeight="1" spans="1:7">
       <c r="A33" s="15" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -2676,16 +2862,16 @@
         <v>26</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" s="2" customFormat="1" ht="24" customHeight="1" spans="1:7">
       <c r="A34" s="16"/>
       <c r="B34" s="15" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -2693,16 +2879,16 @@
         <v>26</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" s="2" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A35" s="17"/>
       <c r="B35" s="15" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -2710,18 +2896,18 @@
         <v>26</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
       <c r="A36" s="15" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -2729,16 +2915,16 @@
         <v>26</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
       <c r="A37" s="16"/>
       <c r="B37" s="15" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -2746,16 +2932,16 @@
         <v>26</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
       <c r="A38" s="16"/>
       <c r="B38" s="15" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -2763,16 +2949,16 @@
         <v>26</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" s="2" customFormat="1" ht="20.25" customHeight="1" spans="1:7">
       <c r="A39" s="17"/>
       <c r="B39" s="15" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -2780,122 +2966,122 @@
         <v>26</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" ht="33" spans="1:7">
       <c r="A40" s="10" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="8">
         <v>6</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" ht="33" spans="1:7">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="18" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="8">
         <v>6</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" ht="33" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="18" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="8">
         <v>6</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="1" ht="49.5" spans="1:7">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="18" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="8">
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="1" ht="66" spans="1:7">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="18" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="8">
         <v>6</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="1" ht="33" spans="1:7">
       <c r="A45" s="11"/>
       <c r="B45" s="13"/>
       <c r="C45" s="19" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="8">
         <v>2</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:7">
       <c r="A46" s="11"/>
       <c r="B46" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -2908,24 +3094,24 @@
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="13" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="8">
         <v>6</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:7">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -2938,7 +3124,7 @@
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="7" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -2951,7 +3137,7 @@
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -2962,25 +3148,25 @@
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E51" s="7"/>
       <c r="G51" s="14" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="1" ht="115.5" spans="1:7">
       <c r="A52" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -2992,7 +3178,7 @@
     <row r="53" s="1" customFormat="1" ht="33" spans="1:7">
       <c r="A53" s="7"/>
       <c r="B53" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -3004,107 +3190,107 @@
     </row>
     <row r="54" s="1" customFormat="1" ht="82.5" spans="1:7">
       <c r="A54" s="15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B54" s="10"/>
       <c r="C54" s="15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="7"/>
       <c r="F54" s="8"/>
       <c r="G54" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="1" ht="99" spans="1:7">
       <c r="A55" s="14" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="14" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="8"/>
       <c r="G55" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" spans="1:7">
       <c r="A56" s="14" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="8"/>
       <c r="G56" s="14" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" ht="17" customHeight="1" spans="1:7">
       <c r="A57" s="14"/>
       <c r="B57" s="14" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="8"/>
       <c r="G57" s="14" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" spans="1:7">
       <c r="A58" s="14"/>
       <c r="B58" s="14" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="8"/>
       <c r="G58" s="14" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" spans="1:7">
       <c r="A59" s="14"/>
       <c r="B59" s="14" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="8"/>
       <c r="G59" s="14" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" ht="115.5" spans="1:7">
       <c r="A60" s="14"/>
       <c r="B60" s="14" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="8"/>
       <c r="G60" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:7">
       <c r="A61" s="14"/>
       <c r="B61" s="14" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -3115,72 +3301,72 @@
     <row r="62" s="1" customFormat="1" spans="1:7">
       <c r="A62" s="14"/>
       <c r="B62" s="14" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="8"/>
       <c r="G62" s="12" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="66" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="49.5" spans="1:7">
       <c r="A63" s="15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="8"/>
       <c r="G63" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="82.5" spans="1:7">
       <c r="A64" s="16"/>
       <c r="B64" s="14" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="8"/>
       <c r="G64" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="33" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:7">
       <c r="A65" s="16"/>
       <c r="B65" s="14" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="8"/>
       <c r="G65" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" spans="1:7">
       <c r="A66" s="17"/>
       <c r="B66" s="14" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="8"/>
       <c r="G66" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="7:7">
@@ -3188,16 +3374,16 @@
     </row>
     <row r="68" s="3" customFormat="1" spans="1:6">
       <c r="A68" s="3" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="F68" s="6"/>
     </row>
     <row r="70" s="4" customFormat="1" spans="2:7">
       <c r="B70" s="4" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="21"/>
@@ -3208,10 +3394,10 @@
     </row>
     <row r="72" s="4" customFormat="1" spans="2:7">
       <c r="B72" s="4" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="21"/>
@@ -3222,7 +3408,7 @@
     </row>
     <row r="74" s="4" customFormat="1" spans="2:7">
       <c r="B74" s="4" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="21"/>
@@ -3233,19 +3419,19 @@
     </row>
     <row r="76" s="4" customFormat="1" spans="2:7">
       <c r="B76" s="4" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="21"/>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="5" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" s="22" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3293,35 +3479,35 @@
   <sheetData>
     <row r="29" spans="10:10">
       <c r="J29" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="10:12">
       <c r="J30" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="10:10">
       <c r="J31" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="11:11">
       <c r="K32" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="10:10">
       <c r="J37" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="10:10">
       <c r="J42" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3344,10 +3530,10 @@
   <sheetData>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
